--- a/Plant_Materials/S2MET_project_entries.xlsx
+++ b/Plant_Materials/S2MET_project_entries.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\Google Drive\Barley Lab\Projects\S2MET\Plant_Materials\"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="464">
   <si>
     <t>06AB-08</t>
   </si>
@@ -840,6 +840,585 @@
   </si>
   <si>
     <t>Full_Pint</t>
+  </si>
+  <si>
+    <t>Program_Name</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>Parent?</t>
+  </si>
+  <si>
+    <t>04AB013-79</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>04AB088-46</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>MT050236</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>2ND21089</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>2ND23146</t>
+  </si>
+  <si>
+    <t>2ND23164</t>
+  </si>
+  <si>
+    <t>2ND24186</t>
+  </si>
+  <si>
+    <t>2ND24205</t>
+  </si>
+  <si>
+    <t>2ND24238</t>
+  </si>
+  <si>
+    <t>2ND24259</t>
+  </si>
+  <si>
+    <t>2ND24341</t>
+  </si>
+  <si>
+    <t>2ND24365</t>
+  </si>
+  <si>
+    <t>2ND24379</t>
+  </si>
+  <si>
+    <t>2ND24385</t>
+  </si>
+  <si>
+    <t>2ND24388</t>
+  </si>
+  <si>
+    <t>2ND24393</t>
+  </si>
+  <si>
+    <t>2ND24424</t>
+  </si>
+  <si>
+    <t>2ND24434</t>
+  </si>
+  <si>
+    <t>2ND24510</t>
+  </si>
+  <si>
+    <t>2ND24519</t>
+  </si>
+  <si>
+    <t>03WA-119.4</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>04WA-118.11</t>
+  </si>
+  <si>
+    <t>04WA-102.43</t>
+  </si>
+  <si>
+    <t>04WNZ-128</t>
+  </si>
+  <si>
+    <t>2AB04-X00017-4</t>
+  </si>
+  <si>
+    <t>2AB04-X00022-4</t>
+  </si>
+  <si>
+    <t>2AB04-X00026-2</t>
+  </si>
+  <si>
+    <t>2AB04-X00027-9</t>
+  </si>
+  <si>
+    <t>2AB04-X00103-4</t>
+  </si>
+  <si>
+    <t>2AB04-X01082-10</t>
+  </si>
+  <si>
+    <t>2AB04-X01082-12</t>
+  </si>
+  <si>
+    <t>2AB04-X01083-9</t>
+  </si>
+  <si>
+    <t>2AB04-X01084-15</t>
+  </si>
+  <si>
+    <t>2AB04-X01084-6</t>
+  </si>
+  <si>
+    <t>2AB04-X01085-14</t>
+  </si>
+  <si>
+    <t>2AB04-X01085-3</t>
+  </si>
+  <si>
+    <t>2AB04-X01085-6</t>
+  </si>
+  <si>
+    <t>2B05-0655</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>MT070031</t>
+  </si>
+  <si>
+    <t>2ND26306</t>
+  </si>
+  <si>
+    <t>2ND26319</t>
+  </si>
+  <si>
+    <t>2ND26321</t>
+  </si>
+  <si>
+    <t>2ND26322</t>
+  </si>
+  <si>
+    <t>2ND26324</t>
+  </si>
+  <si>
+    <t>2ND26325</t>
+  </si>
+  <si>
+    <t>2ND26326</t>
+  </si>
+  <si>
+    <t>2ND26328</t>
+  </si>
+  <si>
+    <t>2ND26330</t>
+  </si>
+  <si>
+    <t>2ND26333</t>
+  </si>
+  <si>
+    <t>2ND26334</t>
+  </si>
+  <si>
+    <t>2ND26341</t>
+  </si>
+  <si>
+    <t>2ND26342</t>
+  </si>
+  <si>
+    <t>2ND26346</t>
+  </si>
+  <si>
+    <t>2ND26348</t>
+  </si>
+  <si>
+    <t>2ND26350</t>
+  </si>
+  <si>
+    <t>2ND26351</t>
+  </si>
+  <si>
+    <t>2ND26352</t>
+  </si>
+  <si>
+    <t>2ND26361</t>
+  </si>
+  <si>
+    <t>2ND26369</t>
+  </si>
+  <si>
+    <t>2ND26373</t>
+  </si>
+  <si>
+    <t>2ND26388</t>
+  </si>
+  <si>
+    <t>05WA-303.17</t>
+  </si>
+  <si>
+    <t>05WA-324.17</t>
+  </si>
+  <si>
+    <t>05WA-360.21</t>
+  </si>
+  <si>
+    <t>2AB07-X04M219-46</t>
+  </si>
+  <si>
+    <t>2AB07-X04M219-14</t>
+  </si>
+  <si>
+    <t>2AB07-X04M120-23</t>
+  </si>
+  <si>
+    <t>2AB07-X04M122-47</t>
+  </si>
+  <si>
+    <t>2AB07-X04M122-15</t>
+  </si>
+  <si>
+    <t>2AB07-X030091-34</t>
+  </si>
+  <si>
+    <t>2AB07-X04M281-32</t>
+  </si>
+  <si>
+    <t>2AB07-X04M281-8</t>
+  </si>
+  <si>
+    <t>2AB07-X04M203-7</t>
+  </si>
+  <si>
+    <t>2AB07-X02001-2</t>
+  </si>
+  <si>
+    <t>2AB07-X031088-33</t>
+  </si>
+  <si>
+    <t>2AB07-X02005-45</t>
+  </si>
+  <si>
+    <t>2AB07-X020021-49</t>
+  </si>
+  <si>
+    <t>2AB07-X031170-28</t>
+  </si>
+  <si>
+    <t>2AB07-X031123-44</t>
+  </si>
+  <si>
+    <t>2AB07-X04M114-25</t>
+  </si>
+  <si>
+    <t>2AB07-X04M114-21</t>
+  </si>
+  <si>
+    <t>MT080010</t>
+  </si>
+  <si>
+    <t>MT080077</t>
+  </si>
+  <si>
+    <t>MT080154</t>
+  </si>
+  <si>
+    <t>MT080160</t>
+  </si>
+  <si>
+    <t>MT080170</t>
+  </si>
+  <si>
+    <t>MT080236</t>
+  </si>
+  <si>
+    <t>MT080270</t>
+  </si>
+  <si>
+    <t>MT080281</t>
+  </si>
+  <si>
+    <t>2ND27343</t>
+  </si>
+  <si>
+    <t>2ND27344</t>
+  </si>
+  <si>
+    <t>2ND27346</t>
+  </si>
+  <si>
+    <t>2ND27347</t>
+  </si>
+  <si>
+    <t>2ND27348</t>
+  </si>
+  <si>
+    <t>2ND27349</t>
+  </si>
+  <si>
+    <t>2ND27353</t>
+  </si>
+  <si>
+    <t>2ND27360</t>
+  </si>
+  <si>
+    <t>2ND27362</t>
+  </si>
+  <si>
+    <t>2ND27368</t>
+  </si>
+  <si>
+    <t>2ND27373</t>
+  </si>
+  <si>
+    <t>2ND27374</t>
+  </si>
+  <si>
+    <t>2ND27375</t>
+  </si>
+  <si>
+    <t>2ND27377</t>
+  </si>
+  <si>
+    <t>2ND27378</t>
+  </si>
+  <si>
+    <t>2ND27379</t>
+  </si>
+  <si>
+    <t>2ND27380</t>
+  </si>
+  <si>
+    <t>2ND27390</t>
+  </si>
+  <si>
+    <t>2ND27392</t>
+  </si>
+  <si>
+    <t>2ND27394</t>
+  </si>
+  <si>
+    <t>2ND27395</t>
+  </si>
+  <si>
+    <t>2ND27396</t>
+  </si>
+  <si>
+    <t>2ND27397</t>
+  </si>
+  <si>
+    <t>2ND27403</t>
+  </si>
+  <si>
+    <t>2ND27404</t>
+  </si>
+  <si>
+    <t>2ND27405</t>
+  </si>
+  <si>
+    <t>2ND27408</t>
+  </si>
+  <si>
+    <t>2ND27416</t>
+  </si>
+  <si>
+    <t>2ND27419</t>
+  </si>
+  <si>
+    <t>2ND27421</t>
+  </si>
+  <si>
+    <t>06WA-406.6</t>
+  </si>
+  <si>
+    <t>06WA-412.14</t>
+  </si>
+  <si>
+    <t>06WA-419.6</t>
+  </si>
+  <si>
+    <t>06WA-427.31</t>
+  </si>
+  <si>
+    <t>06WA-427.50</t>
+  </si>
+  <si>
+    <t>06WA-431.16</t>
+  </si>
+  <si>
+    <t>06WA-431.25</t>
+  </si>
+  <si>
+    <t>06WA-448.5</t>
+  </si>
+  <si>
+    <t>06WA-455.5</t>
+  </si>
+  <si>
+    <t>06WA-466.6</t>
+  </si>
+  <si>
+    <t>06WA-475.15</t>
+  </si>
+  <si>
+    <t>06WA-406.18</t>
+  </si>
+  <si>
+    <t>06WA-422.19</t>
+  </si>
+  <si>
+    <t>06WA-425.3</t>
+  </si>
+  <si>
+    <t>06WA-444.5</t>
+  </si>
+  <si>
+    <t>06WA-461.1</t>
+  </si>
+  <si>
+    <t>2AB08-X04M278-10</t>
+  </si>
+  <si>
+    <t>2AB08-X05M006-32</t>
+  </si>
+  <si>
+    <t>2AB08-X05M046-21</t>
+  </si>
+  <si>
+    <t>2AB08-X05M028-12</t>
+  </si>
+  <si>
+    <t>2AB08-X05M028-76</t>
+  </si>
+  <si>
+    <t>2AB08-X05M030-72</t>
+  </si>
+  <si>
+    <t>2AB08-X05M011-46</t>
+  </si>
+  <si>
+    <t>MT090059</t>
+  </si>
+  <si>
+    <t>MT090124</t>
+  </si>
+  <si>
+    <t>MT090128</t>
+  </si>
+  <si>
+    <t>MT090178</t>
+  </si>
+  <si>
+    <t>MT090193</t>
+  </si>
+  <si>
+    <t>MT090194</t>
+  </si>
+  <si>
+    <t>MT090226</t>
+  </si>
+  <si>
+    <t>MT090234</t>
+  </si>
+  <si>
+    <t>MT090235</t>
+  </si>
+  <si>
+    <t>2ND27440</t>
+  </si>
+  <si>
+    <t>2ND27480</t>
+  </si>
+  <si>
+    <t>2ND27518</t>
+  </si>
+  <si>
+    <t>2ND27572</t>
+  </si>
+  <si>
+    <t>2ND27577</t>
+  </si>
+  <si>
+    <t>2ND27625</t>
+  </si>
+  <si>
+    <t>2ND27628</t>
+  </si>
+  <si>
+    <t>2ND27633</t>
+  </si>
+  <si>
+    <t>2ND27657</t>
+  </si>
+  <si>
+    <t>2ND27660</t>
+  </si>
+  <si>
+    <t>2ND27667</t>
+  </si>
+  <si>
+    <t>2ND27669</t>
+  </si>
+  <si>
+    <t>2ND27670</t>
+  </si>
+  <si>
+    <t>2ND27671</t>
+  </si>
+  <si>
+    <t>2ND27672</t>
+  </si>
+  <si>
+    <t>2ND27673</t>
+  </si>
+  <si>
+    <t>2ND27674</t>
+  </si>
+  <si>
+    <t>2ND27675</t>
+  </si>
+  <si>
+    <t>2ND27676</t>
+  </si>
+  <si>
+    <t>2ND27677</t>
+  </si>
+  <si>
+    <t>2ND27678</t>
+  </si>
+  <si>
+    <t>2ND27681</t>
+  </si>
+  <si>
+    <t>2ND27692</t>
+  </si>
+  <si>
+    <t>2ND27693</t>
+  </si>
+  <si>
+    <t>2ND27695</t>
+  </si>
+  <si>
+    <t>2ND27699</t>
+  </si>
+  <si>
+    <t>2ND27700</t>
+  </si>
+  <si>
+    <t>2ND27702</t>
+  </si>
+  <si>
+    <t>2ND27705</t>
+  </si>
+  <si>
+    <t>07WA-616.1</t>
+  </si>
+  <si>
+    <t>07WA-682.1</t>
+  </si>
+  <si>
+    <t>07WA-614.12</t>
   </si>
 </sst>
 </file>
@@ -1206,18 +1785,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C245"/>
+  <dimension ref="A1:F245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="C245" sqref="C245"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="K198" sqref="K198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>232</v>
       </c>
@@ -1227,8 +1808,17 @@
       <c r="C1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1238,8 +1828,17 @@
       <c r="C2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1249,8 +1848,17 @@
       <c r="C3" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1260,8 +1868,17 @@
       <c r="C4" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1271,8 +1888,17 @@
       <c r="C5" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1282,8 +1908,17 @@
       <c r="C6" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1293,8 +1928,17 @@
       <c r="C7" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1304,8 +1948,17 @@
       <c r="C8" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1315,8 +1968,17 @@
       <c r="C9" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1326,8 +1988,17 @@
       <c r="C10" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" t="s">
+        <v>282</v>
+      </c>
+      <c r="F10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1337,8 +2008,17 @@
       <c r="C11" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1348,8 +2028,17 @@
       <c r="C12" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" t="s">
+        <v>282</v>
+      </c>
+      <c r="F12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1359,8 +2048,17 @@
       <c r="C13" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>290</v>
+      </c>
+      <c r="E13" t="s">
+        <v>282</v>
+      </c>
+      <c r="F13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1370,8 +2068,17 @@
       <c r="C14" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E14" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1381,8 +2088,17 @@
       <c r="C15" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E15" t="s">
+        <v>282</v>
+      </c>
+      <c r="F15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1392,8 +2108,17 @@
       <c r="C16" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>293</v>
+      </c>
+      <c r="E16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1403,8 +2128,17 @@
       <c r="C17" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>294</v>
+      </c>
+      <c r="E17" t="s">
+        <v>282</v>
+      </c>
+      <c r="F17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1414,8 +2148,17 @@
       <c r="C18" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1425,8 +2168,17 @@
       <c r="C19" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>296</v>
+      </c>
+      <c r="E19" t="s">
+        <v>282</v>
+      </c>
+      <c r="F19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1436,8 +2188,17 @@
       <c r="C20" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>297</v>
+      </c>
+      <c r="E20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +2208,17 @@
       <c r="C21" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" t="s">
+        <v>282</v>
+      </c>
+      <c r="F21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1458,8 +2228,17 @@
       <c r="C22" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>299</v>
+      </c>
+      <c r="E22" t="s">
+        <v>300</v>
+      </c>
+      <c r="F22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1469,8 +2248,17 @@
       <c r="C23" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>301</v>
+      </c>
+      <c r="E23" t="s">
+        <v>300</v>
+      </c>
+      <c r="F23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1480,8 +2268,17 @@
       <c r="C24" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>302</v>
+      </c>
+      <c r="E24" t="s">
+        <v>300</v>
+      </c>
+      <c r="F24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1491,8 +2288,17 @@
       <c r="C25" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>303</v>
+      </c>
+      <c r="E25" t="s">
+        <v>300</v>
+      </c>
+      <c r="F25" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1502,8 +2308,17 @@
       <c r="C26" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>304</v>
+      </c>
+      <c r="E26" t="s">
+        <v>275</v>
+      </c>
+      <c r="F26" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1513,8 +2328,17 @@
       <c r="C27" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>305</v>
+      </c>
+      <c r="E27" t="s">
+        <v>275</v>
+      </c>
+      <c r="F27" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1524,8 +2348,17 @@
       <c r="C28" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>306</v>
+      </c>
+      <c r="E28" t="s">
+        <v>275</v>
+      </c>
+      <c r="F28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1535,8 +2368,17 @@
       <c r="C29" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>307</v>
+      </c>
+      <c r="E29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1546,8 +2388,17 @@
       <c r="C30" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>308</v>
+      </c>
+      <c r="E30" t="s">
+        <v>275</v>
+      </c>
+      <c r="F30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1557,8 +2408,17 @@
       <c r="C31" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>309</v>
+      </c>
+      <c r="E31" t="s">
+        <v>275</v>
+      </c>
+      <c r="F31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1568,8 +2428,17 @@
       <c r="C32" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>310</v>
+      </c>
+      <c r="E32" t="s">
+        <v>275</v>
+      </c>
+      <c r="F32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1579,8 +2448,17 @@
       <c r="C33" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>311</v>
+      </c>
+      <c r="E33" t="s">
+        <v>275</v>
+      </c>
+      <c r="F33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1590,8 +2468,17 @@
       <c r="C34" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>312</v>
+      </c>
+      <c r="E34" t="s">
+        <v>275</v>
+      </c>
+      <c r="F34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1601,8 +2488,17 @@
       <c r="C35" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>313</v>
+      </c>
+      <c r="E35" t="s">
+        <v>275</v>
+      </c>
+      <c r="F35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1612,8 +2508,17 @@
       <c r="C36" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E36" t="s">
+        <v>275</v>
+      </c>
+      <c r="F36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1623,8 +2528,17 @@
       <c r="C37" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37" t="s">
+        <v>275</v>
+      </c>
+      <c r="F37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1634,8 +2548,17 @@
       <c r="C38" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>316</v>
+      </c>
+      <c r="E38" t="s">
+        <v>275</v>
+      </c>
+      <c r="F38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1645,8 +2568,17 @@
       <c r="C39" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>317</v>
+      </c>
+      <c r="E39" t="s">
+        <v>318</v>
+      </c>
+      <c r="F39" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1656,8 +2588,17 @@
       <c r="C40" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>319</v>
+      </c>
+      <c r="E40" t="s">
+        <v>280</v>
+      </c>
+      <c r="F40" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1667,8 +2608,17 @@
       <c r="C41" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>320</v>
+      </c>
+      <c r="E41" t="s">
+        <v>282</v>
+      </c>
+      <c r="F41" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1678,8 +2628,17 @@
       <c r="C42" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>321</v>
+      </c>
+      <c r="E42" t="s">
+        <v>282</v>
+      </c>
+      <c r="F42" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1689,8 +2648,17 @@
       <c r="C43" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>322</v>
+      </c>
+      <c r="E43" t="s">
+        <v>282</v>
+      </c>
+      <c r="F43" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1700,8 +2668,17 @@
       <c r="C44" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>323</v>
+      </c>
+      <c r="E44" t="s">
+        <v>282</v>
+      </c>
+      <c r="F44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1711,8 +2688,17 @@
       <c r="C45" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>324</v>
+      </c>
+      <c r="E45" t="s">
+        <v>282</v>
+      </c>
+      <c r="F45" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1722,8 +2708,17 @@
       <c r="C46" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>325</v>
+      </c>
+      <c r="E46" t="s">
+        <v>282</v>
+      </c>
+      <c r="F46" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1733,8 +2728,17 @@
       <c r="C47" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>326</v>
+      </c>
+      <c r="E47" t="s">
+        <v>282</v>
+      </c>
+      <c r="F47" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1744,8 +2748,17 @@
       <c r="C48" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>327</v>
+      </c>
+      <c r="E48" t="s">
+        <v>282</v>
+      </c>
+      <c r="F48" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1755,8 +2768,17 @@
       <c r="C49" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>328</v>
+      </c>
+      <c r="E49" t="s">
+        <v>282</v>
+      </c>
+      <c r="F49" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1766,8 +2788,17 @@
       <c r="C50" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>329</v>
+      </c>
+      <c r="E50" t="s">
+        <v>282</v>
+      </c>
+      <c r="F50" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1777,8 +2808,17 @@
       <c r="C51" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>330</v>
+      </c>
+      <c r="E51" t="s">
+        <v>282</v>
+      </c>
+      <c r="F51" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1788,8 +2828,17 @@
       <c r="C52" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>331</v>
+      </c>
+      <c r="E52" t="s">
+        <v>282</v>
+      </c>
+      <c r="F52" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1799,8 +2848,17 @@
       <c r="C53" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>332</v>
+      </c>
+      <c r="E53" t="s">
+        <v>282</v>
+      </c>
+      <c r="F53" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1810,8 +2868,17 @@
       <c r="C54" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>333</v>
+      </c>
+      <c r="E54" t="s">
+        <v>282</v>
+      </c>
+      <c r="F54" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1821,8 +2888,17 @@
       <c r="C55" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>334</v>
+      </c>
+      <c r="E55" t="s">
+        <v>282</v>
+      </c>
+      <c r="F55" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1832,8 +2908,17 @@
       <c r="C56" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>335</v>
+      </c>
+      <c r="E56" t="s">
+        <v>282</v>
+      </c>
+      <c r="F56" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1843,8 +2928,17 @@
       <c r="C57" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>336</v>
+      </c>
+      <c r="E57" t="s">
+        <v>282</v>
+      </c>
+      <c r="F57" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1854,8 +2948,17 @@
       <c r="C58" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>337</v>
+      </c>
+      <c r="E58" t="s">
+        <v>282</v>
+      </c>
+      <c r="F58" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1865,8 +2968,17 @@
       <c r="C59" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>338</v>
+      </c>
+      <c r="E59" t="s">
+        <v>282</v>
+      </c>
+      <c r="F59" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1876,8 +2988,17 @@
       <c r="C60" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>339</v>
+      </c>
+      <c r="E60" t="s">
+        <v>282</v>
+      </c>
+      <c r="F60" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1887,8 +3008,17 @@
       <c r="C61" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>340</v>
+      </c>
+      <c r="E61" t="s">
+        <v>282</v>
+      </c>
+      <c r="F61" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1898,8 +3028,17 @@
       <c r="C62" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>341</v>
+      </c>
+      <c r="E62" t="s">
+        <v>282</v>
+      </c>
+      <c r="F62" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1909,8 +3048,17 @@
       <c r="C63" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>342</v>
+      </c>
+      <c r="E63" t="s">
+        <v>300</v>
+      </c>
+      <c r="F63" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1920,8 +3068,17 @@
       <c r="C64" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>343</v>
+      </c>
+      <c r="E64" t="s">
+        <v>300</v>
+      </c>
+      <c r="F64" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -1931,8 +3088,17 @@
       <c r="C65" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>344</v>
+      </c>
+      <c r="E65" t="s">
+        <v>300</v>
+      </c>
+      <c r="F65" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -1942,8 +3108,17 @@
       <c r="C66" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>345</v>
+      </c>
+      <c r="E66" t="s">
+        <v>275</v>
+      </c>
+      <c r="F66" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -1953,8 +3128,17 @@
       <c r="C67" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>346</v>
+      </c>
+      <c r="E67" t="s">
+        <v>275</v>
+      </c>
+      <c r="F67" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -1964,8 +3148,17 @@
       <c r="C68" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>347</v>
+      </c>
+      <c r="E68" t="s">
+        <v>275</v>
+      </c>
+      <c r="F68" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -1975,8 +3168,17 @@
       <c r="C69" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>348</v>
+      </c>
+      <c r="E69" t="s">
+        <v>275</v>
+      </c>
+      <c r="F69" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -1986,8 +3188,17 @@
       <c r="C70" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>349</v>
+      </c>
+      <c r="E70" t="s">
+        <v>275</v>
+      </c>
+      <c r="F70" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -1997,8 +3208,17 @@
       <c r="C71" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>350</v>
+      </c>
+      <c r="E71" t="s">
+        <v>275</v>
+      </c>
+      <c r="F71" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -2008,8 +3228,17 @@
       <c r="C72" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>351</v>
+      </c>
+      <c r="E72" t="s">
+        <v>275</v>
+      </c>
+      <c r="F72" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -2019,8 +3248,17 @@
       <c r="C73" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>352</v>
+      </c>
+      <c r="E73" t="s">
+        <v>275</v>
+      </c>
+      <c r="F73" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -2030,8 +3268,17 @@
       <c r="C74" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>353</v>
+      </c>
+      <c r="E74" t="s">
+        <v>275</v>
+      </c>
+      <c r="F74" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -2041,8 +3288,17 @@
       <c r="C75" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>354</v>
+      </c>
+      <c r="E75" t="s">
+        <v>275</v>
+      </c>
+      <c r="F75" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -2052,8 +3308,17 @@
       <c r="C76" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>355</v>
+      </c>
+      <c r="E76" t="s">
+        <v>275</v>
+      </c>
+      <c r="F76" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2063,8 +3328,17 @@
       <c r="C77" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>356</v>
+      </c>
+      <c r="E77" t="s">
+        <v>275</v>
+      </c>
+      <c r="F77" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -2074,8 +3348,17 @@
       <c r="C78" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>357</v>
+      </c>
+      <c r="E78" t="s">
+        <v>275</v>
+      </c>
+      <c r="F78" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -2085,8 +3368,17 @@
       <c r="C79" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>358</v>
+      </c>
+      <c r="E79" t="s">
+        <v>275</v>
+      </c>
+      <c r="F79" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -2096,8 +3388,17 @@
       <c r="C80" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>359</v>
+      </c>
+      <c r="E80" t="s">
+        <v>275</v>
+      </c>
+      <c r="F80" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -2107,8 +3408,17 @@
       <c r="C81" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>360</v>
+      </c>
+      <c r="E81" t="s">
+        <v>275</v>
+      </c>
+      <c r="F81" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -2118,8 +3428,17 @@
       <c r="C82" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>361</v>
+      </c>
+      <c r="E82" t="s">
+        <v>275</v>
+      </c>
+      <c r="F82" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -2129,8 +3448,17 @@
       <c r="C83" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>362</v>
+      </c>
+      <c r="E83" t="s">
+        <v>280</v>
+      </c>
+      <c r="F83" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2140,8 +3468,17 @@
       <c r="C84" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>363</v>
+      </c>
+      <c r="E84" t="s">
+        <v>280</v>
+      </c>
+      <c r="F84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -2151,8 +3488,17 @@
       <c r="C85" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>364</v>
+      </c>
+      <c r="E85" t="s">
+        <v>280</v>
+      </c>
+      <c r="F85" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -2162,8 +3508,17 @@
       <c r="C86" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>365</v>
+      </c>
+      <c r="E86" t="s">
+        <v>280</v>
+      </c>
+      <c r="F86" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -2173,8 +3528,17 @@
       <c r="C87" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>366</v>
+      </c>
+      <c r="E87" t="s">
+        <v>280</v>
+      </c>
+      <c r="F87" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -2184,8 +3548,17 @@
       <c r="C88" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>367</v>
+      </c>
+      <c r="E88" t="s">
+        <v>280</v>
+      </c>
+      <c r="F88" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -2195,8 +3568,17 @@
       <c r="C89" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>368</v>
+      </c>
+      <c r="E89" t="s">
+        <v>280</v>
+      </c>
+      <c r="F89" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -2206,8 +3588,17 @@
       <c r="C90" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>369</v>
+      </c>
+      <c r="E90" t="s">
+        <v>280</v>
+      </c>
+      <c r="F90" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -2217,8 +3608,17 @@
       <c r="C91" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>370</v>
+      </c>
+      <c r="E91" t="s">
+        <v>282</v>
+      </c>
+      <c r="F91" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -2228,8 +3628,17 @@
       <c r="C92" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>371</v>
+      </c>
+      <c r="E92" t="s">
+        <v>282</v>
+      </c>
+      <c r="F92" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -2239,8 +3648,17 @@
       <c r="C93" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>372</v>
+      </c>
+      <c r="E93" t="s">
+        <v>282</v>
+      </c>
+      <c r="F93" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -2250,8 +3668,17 @@
       <c r="C94" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>373</v>
+      </c>
+      <c r="E94" t="s">
+        <v>282</v>
+      </c>
+      <c r="F94" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -2261,8 +3688,17 @@
       <c r="C95" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>374</v>
+      </c>
+      <c r="E95" t="s">
+        <v>282</v>
+      </c>
+      <c r="F95" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -2272,8 +3708,17 @@
       <c r="C96" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>375</v>
+      </c>
+      <c r="E96" t="s">
+        <v>282</v>
+      </c>
+      <c r="F96" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -2283,8 +3728,17 @@
       <c r="C97" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>376</v>
+      </c>
+      <c r="E97" t="s">
+        <v>282</v>
+      </c>
+      <c r="F97" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -2294,8 +3748,17 @@
       <c r="C98" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>377</v>
+      </c>
+      <c r="E98" t="s">
+        <v>282</v>
+      </c>
+      <c r="F98" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -2305,8 +3768,17 @@
       <c r="C99" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>378</v>
+      </c>
+      <c r="E99" t="s">
+        <v>282</v>
+      </c>
+      <c r="F99" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -2316,8 +3788,17 @@
       <c r="C100" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>379</v>
+      </c>
+      <c r="E100" t="s">
+        <v>282</v>
+      </c>
+      <c r="F100" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -2327,8 +3808,17 @@
       <c r="C101" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>380</v>
+      </c>
+      <c r="E101" t="s">
+        <v>282</v>
+      </c>
+      <c r="F101" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -2338,8 +3828,17 @@
       <c r="C102" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>381</v>
+      </c>
+      <c r="E102" t="s">
+        <v>282</v>
+      </c>
+      <c r="F102" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -2349,8 +3848,17 @@
       <c r="C103" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>382</v>
+      </c>
+      <c r="E103" t="s">
+        <v>282</v>
+      </c>
+      <c r="F103" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -2360,8 +3868,17 @@
       <c r="C104" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>383</v>
+      </c>
+      <c r="E104" t="s">
+        <v>282</v>
+      </c>
+      <c r="F104" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -2371,8 +3888,17 @@
       <c r="C105" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>384</v>
+      </c>
+      <c r="E105" t="s">
+        <v>282</v>
+      </c>
+      <c r="F105" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -2382,8 +3908,17 @@
       <c r="C106" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>385</v>
+      </c>
+      <c r="E106" t="s">
+        <v>282</v>
+      </c>
+      <c r="F106" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -2393,8 +3928,17 @@
       <c r="C107" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>386</v>
+      </c>
+      <c r="E107" t="s">
+        <v>282</v>
+      </c>
+      <c r="F107" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -2404,8 +3948,17 @@
       <c r="C108" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>387</v>
+      </c>
+      <c r="E108" t="s">
+        <v>282</v>
+      </c>
+      <c r="F108" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -2415,8 +3968,17 @@
       <c r="C109" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>388</v>
+      </c>
+      <c r="E109" t="s">
+        <v>282</v>
+      </c>
+      <c r="F109" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -2426,8 +3988,17 @@
       <c r="C110" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>389</v>
+      </c>
+      <c r="E110" t="s">
+        <v>282</v>
+      </c>
+      <c r="F110" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -2437,8 +4008,17 @@
       <c r="C111" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>390</v>
+      </c>
+      <c r="E111" t="s">
+        <v>282</v>
+      </c>
+      <c r="F111" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -2448,8 +4028,17 @@
       <c r="C112" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>391</v>
+      </c>
+      <c r="E112" t="s">
+        <v>282</v>
+      </c>
+      <c r="F112" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -2459,8 +4048,17 @@
       <c r="C113" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>392</v>
+      </c>
+      <c r="E113" t="s">
+        <v>282</v>
+      </c>
+      <c r="F113" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -2470,8 +4068,17 @@
       <c r="C114" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>393</v>
+      </c>
+      <c r="E114" t="s">
+        <v>282</v>
+      </c>
+      <c r="F114" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -2481,8 +4088,17 @@
       <c r="C115" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>394</v>
+      </c>
+      <c r="E115" t="s">
+        <v>282</v>
+      </c>
+      <c r="F115" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -2492,8 +4108,17 @@
       <c r="C116" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>395</v>
+      </c>
+      <c r="E116" t="s">
+        <v>282</v>
+      </c>
+      <c r="F116" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -2503,8 +4128,17 @@
       <c r="C117" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>396</v>
+      </c>
+      <c r="E117" t="s">
+        <v>282</v>
+      </c>
+      <c r="F117" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -2514,8 +4148,17 @@
       <c r="C118" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>397</v>
+      </c>
+      <c r="E118" t="s">
+        <v>282</v>
+      </c>
+      <c r="F118" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -2525,8 +4168,17 @@
       <c r="C119" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>398</v>
+      </c>
+      <c r="E119" t="s">
+        <v>282</v>
+      </c>
+      <c r="F119" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -2536,8 +4188,17 @@
       <c r="C120" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>399</v>
+      </c>
+      <c r="E120" t="s">
+        <v>282</v>
+      </c>
+      <c r="F120" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -2547,8 +4208,17 @@
       <c r="C121" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>400</v>
+      </c>
+      <c r="E121" t="s">
+        <v>300</v>
+      </c>
+      <c r="F121" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -2558,8 +4228,17 @@
       <c r="C122" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>401</v>
+      </c>
+      <c r="E122" t="s">
+        <v>300</v>
+      </c>
+      <c r="F122" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -2569,8 +4248,17 @@
       <c r="C123" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>402</v>
+      </c>
+      <c r="E123" t="s">
+        <v>300</v>
+      </c>
+      <c r="F123" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -2580,8 +4268,17 @@
       <c r="C124" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>403</v>
+      </c>
+      <c r="E124" t="s">
+        <v>300</v>
+      </c>
+      <c r="F124" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -2591,8 +4288,17 @@
       <c r="C125" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>404</v>
+      </c>
+      <c r="E125" t="s">
+        <v>300</v>
+      </c>
+      <c r="F125" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -2602,8 +4308,17 @@
       <c r="C126" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>405</v>
+      </c>
+      <c r="E126" t="s">
+        <v>300</v>
+      </c>
+      <c r="F126" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -2613,8 +4328,17 @@
       <c r="C127" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>406</v>
+      </c>
+      <c r="E127" t="s">
+        <v>300</v>
+      </c>
+      <c r="F127" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -2624,8 +4348,17 @@
       <c r="C128" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>407</v>
+      </c>
+      <c r="E128" t="s">
+        <v>300</v>
+      </c>
+      <c r="F128" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -2635,8 +4368,17 @@
       <c r="C129" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>408</v>
+      </c>
+      <c r="E129" t="s">
+        <v>300</v>
+      </c>
+      <c r="F129" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -2646,8 +4388,17 @@
       <c r="C130" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>409</v>
+      </c>
+      <c r="E130" t="s">
+        <v>300</v>
+      </c>
+      <c r="F130" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -2657,8 +4408,17 @@
       <c r="C131" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>410</v>
+      </c>
+      <c r="E131" t="s">
+        <v>300</v>
+      </c>
+      <c r="F131" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -2668,8 +4428,17 @@
       <c r="C132" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>411</v>
+      </c>
+      <c r="E132" t="s">
+        <v>300</v>
+      </c>
+      <c r="F132" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -2679,8 +4448,17 @@
       <c r="C133" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>412</v>
+      </c>
+      <c r="E133" t="s">
+        <v>300</v>
+      </c>
+      <c r="F133" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -2690,8 +4468,17 @@
       <c r="C134" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>413</v>
+      </c>
+      <c r="E134" t="s">
+        <v>300</v>
+      </c>
+      <c r="F134" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -2701,8 +4488,17 @@
       <c r="C135" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>414</v>
+      </c>
+      <c r="E135" t="s">
+        <v>300</v>
+      </c>
+      <c r="F135" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -2712,8 +4508,17 @@
       <c r="C136" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>415</v>
+      </c>
+      <c r="E136" t="s">
+        <v>300</v>
+      </c>
+      <c r="F136" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -2723,8 +4528,17 @@
       <c r="C137" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>416</v>
+      </c>
+      <c r="E137" t="s">
+        <v>275</v>
+      </c>
+      <c r="F137" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -2734,8 +4548,17 @@
       <c r="C138" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>417</v>
+      </c>
+      <c r="E138" t="s">
+        <v>275</v>
+      </c>
+      <c r="F138" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -2745,8 +4568,17 @@
       <c r="C139" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>418</v>
+      </c>
+      <c r="E139" t="s">
+        <v>275</v>
+      </c>
+      <c r="F139" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -2756,8 +4588,17 @@
       <c r="C140" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>419</v>
+      </c>
+      <c r="E140" t="s">
+        <v>275</v>
+      </c>
+      <c r="F140" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -2767,8 +4608,17 @@
       <c r="C141" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>420</v>
+      </c>
+      <c r="E141" t="s">
+        <v>275</v>
+      </c>
+      <c r="F141" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -2778,8 +4628,17 @@
       <c r="C142" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>421</v>
+      </c>
+      <c r="E142" t="s">
+        <v>275</v>
+      </c>
+      <c r="F142" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -2789,8 +4648,17 @@
       <c r="C143" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>422</v>
+      </c>
+      <c r="E143" t="s">
+        <v>275</v>
+      </c>
+      <c r="F143" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -2800,8 +4668,17 @@
       <c r="C144" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>423</v>
+      </c>
+      <c r="E144" t="s">
+        <v>280</v>
+      </c>
+      <c r="F144" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -2811,8 +4688,17 @@
       <c r="C145" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>424</v>
+      </c>
+      <c r="E145" t="s">
+        <v>280</v>
+      </c>
+      <c r="F145" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -2822,8 +4708,17 @@
       <c r="C146" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>425</v>
+      </c>
+      <c r="E146" t="s">
+        <v>280</v>
+      </c>
+      <c r="F146" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -2833,8 +4728,17 @@
       <c r="C147" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>426</v>
+      </c>
+      <c r="E147" t="s">
+        <v>280</v>
+      </c>
+      <c r="F147" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -2844,8 +4748,17 @@
       <c r="C148" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>427</v>
+      </c>
+      <c r="E148" t="s">
+        <v>280</v>
+      </c>
+      <c r="F148" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -2855,8 +4768,17 @@
       <c r="C149" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>428</v>
+      </c>
+      <c r="E149" t="s">
+        <v>280</v>
+      </c>
+      <c r="F149" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -2866,8 +4788,17 @@
       <c r="C150" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>429</v>
+      </c>
+      <c r="E150" t="s">
+        <v>280</v>
+      </c>
+      <c r="F150" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -2877,8 +4808,17 @@
       <c r="C151" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>430</v>
+      </c>
+      <c r="E151" t="s">
+        <v>280</v>
+      </c>
+      <c r="F151" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -2888,8 +4828,17 @@
       <c r="C152" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>431</v>
+      </c>
+      <c r="E152" t="s">
+        <v>280</v>
+      </c>
+      <c r="F152" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -2899,8 +4848,17 @@
       <c r="C153" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E153" t="s">
+        <v>282</v>
+      </c>
+      <c r="F153" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -2910,8 +4868,17 @@
       <c r="C154" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>433</v>
+      </c>
+      <c r="E154" t="s">
+        <v>282</v>
+      </c>
+      <c r="F154" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -2921,8 +4888,17 @@
       <c r="C155" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>434</v>
+      </c>
+      <c r="E155" t="s">
+        <v>282</v>
+      </c>
+      <c r="F155" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -2932,8 +4908,17 @@
       <c r="C156" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>435</v>
+      </c>
+      <c r="E156" t="s">
+        <v>282</v>
+      </c>
+      <c r="F156" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -2943,8 +4928,17 @@
       <c r="C157" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>436</v>
+      </c>
+      <c r="E157" t="s">
+        <v>282</v>
+      </c>
+      <c r="F157" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -2954,8 +4948,17 @@
       <c r="C158" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>437</v>
+      </c>
+      <c r="E158" t="s">
+        <v>282</v>
+      </c>
+      <c r="F158" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -2965,8 +4968,17 @@
       <c r="C159" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>438</v>
+      </c>
+      <c r="E159" t="s">
+        <v>282</v>
+      </c>
+      <c r="F159" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -2976,8 +4988,17 @@
       <c r="C160" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>439</v>
+      </c>
+      <c r="E160" t="s">
+        <v>282</v>
+      </c>
+      <c r="F160" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -2987,8 +5008,17 @@
       <c r="C161" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>440</v>
+      </c>
+      <c r="E161" t="s">
+        <v>282</v>
+      </c>
+      <c r="F161" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -2998,8 +5028,17 @@
       <c r="C162" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>441</v>
+      </c>
+      <c r="E162" t="s">
+        <v>282</v>
+      </c>
+      <c r="F162" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -3009,8 +5048,17 @@
       <c r="C163" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>442</v>
+      </c>
+      <c r="E163" t="s">
+        <v>282</v>
+      </c>
+      <c r="F163" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -3020,8 +5068,17 @@
       <c r="C164" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>443</v>
+      </c>
+      <c r="E164" t="s">
+        <v>282</v>
+      </c>
+      <c r="F164" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -3031,8 +5088,17 @@
       <c r="C165" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>444</v>
+      </c>
+      <c r="E165" t="s">
+        <v>282</v>
+      </c>
+      <c r="F165" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -3042,8 +5108,17 @@
       <c r="C166" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>445</v>
+      </c>
+      <c r="E166" t="s">
+        <v>282</v>
+      </c>
+      <c r="F166" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -3053,8 +5128,17 @@
       <c r="C167" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>446</v>
+      </c>
+      <c r="E167" t="s">
+        <v>282</v>
+      </c>
+      <c r="F167" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -3064,8 +5148,17 @@
       <c r="C168" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>447</v>
+      </c>
+      <c r="E168" t="s">
+        <v>282</v>
+      </c>
+      <c r="F168" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -3075,8 +5168,17 @@
       <c r="C169" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>448</v>
+      </c>
+      <c r="E169" t="s">
+        <v>282</v>
+      </c>
+      <c r="F169" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -3086,8 +5188,17 @@
       <c r="C170" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>449</v>
+      </c>
+      <c r="E170" t="s">
+        <v>282</v>
+      </c>
+      <c r="F170" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -3097,8 +5208,17 @@
       <c r="C171" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>450</v>
+      </c>
+      <c r="E171" t="s">
+        <v>282</v>
+      </c>
+      <c r="F171" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -3108,8 +5228,17 @@
       <c r="C172" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>451</v>
+      </c>
+      <c r="E172" t="s">
+        <v>282</v>
+      </c>
+      <c r="F172" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -3119,8 +5248,17 @@
       <c r="C173" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>452</v>
+      </c>
+      <c r="E173" t="s">
+        <v>282</v>
+      </c>
+      <c r="F173" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -3130,8 +5268,17 @@
       <c r="C174" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>453</v>
+      </c>
+      <c r="E174" t="s">
+        <v>282</v>
+      </c>
+      <c r="F174" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -3141,8 +5288,17 @@
       <c r="C175" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>454</v>
+      </c>
+      <c r="E175" t="s">
+        <v>282</v>
+      </c>
+      <c r="F175" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -3152,8 +5308,17 @@
       <c r="C176" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>455</v>
+      </c>
+      <c r="E176" t="s">
+        <v>282</v>
+      </c>
+      <c r="F176" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -3163,8 +5328,17 @@
       <c r="C177" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>456</v>
+      </c>
+      <c r="E177" t="s">
+        <v>282</v>
+      </c>
+      <c r="F177" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -3174,8 +5348,17 @@
       <c r="C178" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>457</v>
+      </c>
+      <c r="E178" t="s">
+        <v>282</v>
+      </c>
+      <c r="F178" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>177</v>
       </c>
@@ -3185,8 +5368,17 @@
       <c r="C179" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>458</v>
+      </c>
+      <c r="E179" t="s">
+        <v>282</v>
+      </c>
+      <c r="F179" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -3196,8 +5388,17 @@
       <c r="C180" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>459</v>
+      </c>
+      <c r="E180" t="s">
+        <v>282</v>
+      </c>
+      <c r="F180" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -3207,8 +5408,17 @@
       <c r="C181" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>460</v>
+      </c>
+      <c r="E181" t="s">
+        <v>282</v>
+      </c>
+      <c r="F181" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -3218,8 +5428,17 @@
       <c r="C182" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>461</v>
+      </c>
+      <c r="E182" t="s">
+        <v>300</v>
+      </c>
+      <c r="F182" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -3229,8 +5448,17 @@
       <c r="C183" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>462</v>
+      </c>
+      <c r="E183" t="s">
+        <v>300</v>
+      </c>
+      <c r="F183" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -3240,8 +5468,17 @@
       <c r="C184" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>463</v>
+      </c>
+      <c r="E184" t="s">
+        <v>300</v>
+      </c>
+      <c r="F184" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>231</v>
       </c>
@@ -3251,8 +5488,17 @@
       <c r="C185" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>269</v>
+      </c>
+      <c r="E185" t="s">
+        <v>269</v>
+      </c>
+      <c r="F185" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>230</v>
       </c>
@@ -3262,8 +5508,17 @@
       <c r="C186" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>269</v>
+      </c>
+      <c r="E186" t="s">
+        <v>269</v>
+      </c>
+      <c r="F186" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>229</v>
       </c>
@@ -3273,8 +5528,17 @@
       <c r="C187" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>269</v>
+      </c>
+      <c r="E187" t="s">
+        <v>269</v>
+      </c>
+      <c r="F187" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>228</v>
       </c>
@@ -3284,8 +5548,17 @@
       <c r="C188" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>269</v>
+      </c>
+      <c r="E188" t="s">
+        <v>269</v>
+      </c>
+      <c r="F188" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>227</v>
       </c>
@@ -3295,8 +5568,17 @@
       <c r="C189" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>269</v>
+      </c>
+      <c r="E189" t="s">
+        <v>269</v>
+      </c>
+      <c r="F189" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>226</v>
       </c>
@@ -3306,8 +5588,17 @@
       <c r="C190" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>269</v>
+      </c>
+      <c r="E190" t="s">
+        <v>269</v>
+      </c>
+      <c r="F190" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>225</v>
       </c>
@@ -3317,8 +5608,17 @@
       <c r="C191" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>269</v>
+      </c>
+      <c r="E191" t="s">
+        <v>269</v>
+      </c>
+      <c r="F191" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>224</v>
       </c>
@@ -3328,8 +5628,17 @@
       <c r="C192" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>269</v>
+      </c>
+      <c r="E192" t="s">
+        <v>269</v>
+      </c>
+      <c r="F192" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>223</v>
       </c>
@@ -3339,8 +5648,17 @@
       <c r="C193" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>269</v>
+      </c>
+      <c r="E193" t="s">
+        <v>269</v>
+      </c>
+      <c r="F193" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>222</v>
       </c>
@@ -3350,8 +5668,17 @@
       <c r="C194" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>269</v>
+      </c>
+      <c r="E194" t="s">
+        <v>269</v>
+      </c>
+      <c r="F194" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>221</v>
       </c>
@@ -3361,8 +5688,17 @@
       <c r="C195" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
+        <v>269</v>
+      </c>
+      <c r="E195" t="s">
+        <v>269</v>
+      </c>
+      <c r="F195" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>220</v>
       </c>
@@ -3372,8 +5708,17 @@
       <c r="C196" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>269</v>
+      </c>
+      <c r="E196" t="s">
+        <v>269</v>
+      </c>
+      <c r="F196" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>264</v>
       </c>
@@ -3383,8 +5728,17 @@
       <c r="C197" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>269</v>
+      </c>
+      <c r="E197" t="s">
+        <v>269</v>
+      </c>
+      <c r="F197" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>219</v>
       </c>
@@ -3394,8 +5748,17 @@
       <c r="C198" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>269</v>
+      </c>
+      <c r="E198" t="s">
+        <v>269</v>
+      </c>
+      <c r="F198" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>218</v>
       </c>
@@ -3405,8 +5768,17 @@
       <c r="C199" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>269</v>
+      </c>
+      <c r="E199" t="s">
+        <v>269</v>
+      </c>
+      <c r="F199" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>217</v>
       </c>
@@ -3416,8 +5788,17 @@
       <c r="C200" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>269</v>
+      </c>
+      <c r="E200" t="s">
+        <v>269</v>
+      </c>
+      <c r="F200" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>216</v>
       </c>
@@ -3427,8 +5808,17 @@
       <c r="C201" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>269</v>
+      </c>
+      <c r="E201" t="s">
+        <v>269</v>
+      </c>
+      <c r="F201" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>215</v>
       </c>
@@ -3438,8 +5828,17 @@
       <c r="C202" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>269</v>
+      </c>
+      <c r="E202" t="s">
+        <v>269</v>
+      </c>
+      <c r="F202" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>214</v>
       </c>
@@ -3449,8 +5848,17 @@
       <c r="C203" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>269</v>
+      </c>
+      <c r="E203" t="s">
+        <v>269</v>
+      </c>
+      <c r="F203" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>213</v>
       </c>
@@ -3460,8 +5868,17 @@
       <c r="C204" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>269</v>
+      </c>
+      <c r="E204" t="s">
+        <v>269</v>
+      </c>
+      <c r="F204" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>212</v>
       </c>
@@ -3471,8 +5888,17 @@
       <c r="C205" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
+        <v>269</v>
+      </c>
+      <c r="E205" t="s">
+        <v>269</v>
+      </c>
+      <c r="F205" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>211</v>
       </c>
@@ -3482,8 +5908,17 @@
       <c r="C206" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>269</v>
+      </c>
+      <c r="E206" t="s">
+        <v>269</v>
+      </c>
+      <c r="F206" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>210</v>
       </c>
@@ -3493,8 +5928,17 @@
       <c r="C207" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>269</v>
+      </c>
+      <c r="E207" t="s">
+        <v>269</v>
+      </c>
+      <c r="F207" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -3504,8 +5948,17 @@
       <c r="C208" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
+        <v>269</v>
+      </c>
+      <c r="E208" t="s">
+        <v>269</v>
+      </c>
+      <c r="F208" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -3515,8 +5968,17 @@
       <c r="C209" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>269</v>
+      </c>
+      <c r="E209" t="s">
+        <v>269</v>
+      </c>
+      <c r="F209" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -3526,8 +5988,17 @@
       <c r="C210" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>269</v>
+      </c>
+      <c r="E210" t="s">
+        <v>269</v>
+      </c>
+      <c r="F210" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>206</v>
       </c>
@@ -3537,8 +6008,17 @@
       <c r="C211" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>269</v>
+      </c>
+      <c r="E211" t="s">
+        <v>269</v>
+      </c>
+      <c r="F211" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>205</v>
       </c>
@@ -3548,8 +6028,17 @@
       <c r="C212" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
+        <v>269</v>
+      </c>
+      <c r="E212" t="s">
+        <v>269</v>
+      </c>
+      <c r="F212" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>204</v>
       </c>
@@ -3559,8 +6048,17 @@
       <c r="C213" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
+        <v>269</v>
+      </c>
+      <c r="E213" t="s">
+        <v>269</v>
+      </c>
+      <c r="F213" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>203</v>
       </c>
@@ -3570,8 +6068,17 @@
       <c r="C214" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>269</v>
+      </c>
+      <c r="E214" t="s">
+        <v>269</v>
+      </c>
+      <c r="F214" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>202</v>
       </c>
@@ -3581,8 +6088,17 @@
       <c r="C215" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>269</v>
+      </c>
+      <c r="E215" t="s">
+        <v>269</v>
+      </c>
+      <c r="F215" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>201</v>
       </c>
@@ -3592,8 +6108,17 @@
       <c r="C216" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>269</v>
+      </c>
+      <c r="E216" t="s">
+        <v>269</v>
+      </c>
+      <c r="F216" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>200</v>
       </c>
@@ -3603,8 +6128,17 @@
       <c r="C217" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>269</v>
+      </c>
+      <c r="E217" t="s">
+        <v>269</v>
+      </c>
+      <c r="F217" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>199</v>
       </c>
@@ -3614,8 +6148,17 @@
       <c r="C218" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218" t="s">
+        <v>269</v>
+      </c>
+      <c r="E218" t="s">
+        <v>269</v>
+      </c>
+      <c r="F218" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>198</v>
       </c>
@@ -3625,8 +6168,17 @@
       <c r="C219" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>269</v>
+      </c>
+      <c r="E219" t="s">
+        <v>269</v>
+      </c>
+      <c r="F219" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>197</v>
       </c>
@@ -3636,8 +6188,17 @@
       <c r="C220" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>269</v>
+      </c>
+      <c r="E220" t="s">
+        <v>269</v>
+      </c>
+      <c r="F220" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>196</v>
       </c>
@@ -3647,8 +6208,17 @@
       <c r="C221" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>269</v>
+      </c>
+      <c r="E221" t="s">
+        <v>269</v>
+      </c>
+      <c r="F221" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>195</v>
       </c>
@@ -3658,8 +6228,17 @@
       <c r="C222" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
+        <v>269</v>
+      </c>
+      <c r="E222" t="s">
+        <v>269</v>
+      </c>
+      <c r="F222" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>194</v>
       </c>
@@ -3669,8 +6248,17 @@
       <c r="C223" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223" t="s">
+        <v>269</v>
+      </c>
+      <c r="E223" t="s">
+        <v>269</v>
+      </c>
+      <c r="F223" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>193</v>
       </c>
@@ -3680,8 +6268,17 @@
       <c r="C224" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
+        <v>269</v>
+      </c>
+      <c r="E224" t="s">
+        <v>269</v>
+      </c>
+      <c r="F224" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>192</v>
       </c>
@@ -3691,8 +6288,17 @@
       <c r="C225" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225" t="s">
+        <v>269</v>
+      </c>
+      <c r="E225" t="s">
+        <v>269</v>
+      </c>
+      <c r="F225" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>191</v>
       </c>
@@ -3702,8 +6308,17 @@
       <c r="C226" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
+        <v>269</v>
+      </c>
+      <c r="E226" t="s">
+        <v>269</v>
+      </c>
+      <c r="F226" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>190</v>
       </c>
@@ -3713,8 +6328,17 @@
       <c r="C227" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
+        <v>269</v>
+      </c>
+      <c r="E227" t="s">
+        <v>269</v>
+      </c>
+      <c r="F227" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>189</v>
       </c>
@@ -3724,8 +6348,17 @@
       <c r="C228" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228" t="s">
+        <v>269</v>
+      </c>
+      <c r="E228" t="s">
+        <v>269</v>
+      </c>
+      <c r="F228" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>188</v>
       </c>
@@ -3735,8 +6368,17 @@
       <c r="C229" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229" t="s">
+        <v>269</v>
+      </c>
+      <c r="E229" t="s">
+        <v>269</v>
+      </c>
+      <c r="F229" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>187</v>
       </c>
@@ -3746,8 +6388,17 @@
       <c r="C230" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230" t="s">
+        <v>269</v>
+      </c>
+      <c r="E230" t="s">
+        <v>269</v>
+      </c>
+      <c r="F230" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>186</v>
       </c>
@@ -3757,8 +6408,17 @@
       <c r="C231" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231" t="s">
+        <v>269</v>
+      </c>
+      <c r="E231" t="s">
+        <v>269</v>
+      </c>
+      <c r="F231" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>185</v>
       </c>
@@ -3768,8 +6428,17 @@
       <c r="C232" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232" t="s">
+        <v>269</v>
+      </c>
+      <c r="E232" t="s">
+        <v>269</v>
+      </c>
+      <c r="F232" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>184</v>
       </c>
@@ -3779,8 +6448,17 @@
       <c r="C233" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233" t="s">
+        <v>269</v>
+      </c>
+      <c r="E233" t="s">
+        <v>269</v>
+      </c>
+      <c r="F233" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>183</v>
       </c>
@@ -3790,93 +6468,201 @@
       <c r="C234" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
+        <v>269</v>
+      </c>
+      <c r="E234" t="s">
+        <v>269</v>
+      </c>
+      <c r="F234" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>256</v>
       </c>
       <c r="C235" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
+        <v>269</v>
+      </c>
+      <c r="E235" t="s">
+        <v>269</v>
+      </c>
+      <c r="F235" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>257</v>
       </c>
       <c r="C236" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236" t="s">
+        <v>269</v>
+      </c>
+      <c r="E236" t="s">
+        <v>269</v>
+      </c>
+      <c r="F236" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>258</v>
       </c>
       <c r="C237" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237" t="s">
+        <v>269</v>
+      </c>
+      <c r="E237" t="s">
+        <v>269</v>
+      </c>
+      <c r="F237" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>255</v>
       </c>
       <c r="C238" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238" t="s">
+        <v>269</v>
+      </c>
+      <c r="E238" t="s">
+        <v>269</v>
+      </c>
+      <c r="F238" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>262</v>
       </c>
       <c r="C239" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239" t="s">
+        <v>269</v>
+      </c>
+      <c r="E239" t="s">
+        <v>269</v>
+      </c>
+      <c r="F239" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>260</v>
       </c>
       <c r="C240" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240" t="s">
+        <v>269</v>
+      </c>
+      <c r="E240" t="s">
+        <v>269</v>
+      </c>
+      <c r="F240" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>261</v>
       </c>
       <c r="C241" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241" t="s">
+        <v>269</v>
+      </c>
+      <c r="E241" t="s">
+        <v>269</v>
+      </c>
+      <c r="F241" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>259</v>
       </c>
       <c r="C242" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242" t="s">
+        <v>269</v>
+      </c>
+      <c r="E242" t="s">
+        <v>269</v>
+      </c>
+      <c r="F242" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>254</v>
       </c>
       <c r="C243" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243" t="s">
+        <v>269</v>
+      </c>
+      <c r="E243" t="s">
+        <v>269</v>
+      </c>
+      <c r="F243" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>263</v>
       </c>
       <c r="C244" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244" t="s">
+        <v>269</v>
+      </c>
+      <c r="E244" t="s">
+        <v>269</v>
+      </c>
+      <c r="F244" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>270</v>
       </c>
       <c r="C245" t="s">
         <v>268</v>
+      </c>
+      <c r="D245" t="s">
+        <v>269</v>
+      </c>
+      <c r="E245" t="s">
+        <v>269</v>
+      </c>
+      <c r="F245" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/Plant_Materials/S2MET_project_entries.xlsx
+++ b/Plant_Materials/S2MET_project_entries.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="465">
   <si>
     <t>06AB-08</t>
   </si>
@@ -1419,6 +1419,9 @@
   </si>
   <si>
     <t>07WA-614.12</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -1787,18 +1790,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="K198" sqref="K198"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E186" sqref="E186:E234"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>232</v>
       </c>
@@ -1818,7 +1821,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1838,7 +1841,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1878,7 +1881,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1898,7 +1901,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1918,7 +1921,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1938,7 +1941,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1958,7 +1961,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2018,7 +2021,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2038,7 +2041,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2078,7 +2081,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2118,7 +2121,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2138,7 +2141,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2158,7 +2161,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2178,7 +2181,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2198,7 +2201,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2218,7 +2221,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2238,7 +2241,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2258,7 +2261,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2278,7 +2281,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2298,7 +2301,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2318,7 +2321,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2338,7 +2341,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2358,7 +2361,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2378,7 +2381,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2398,7 +2401,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2418,7 +2421,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2458,7 +2461,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2478,7 +2481,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2498,7 +2501,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2558,7 +2561,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2578,7 +2581,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2598,7 +2601,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2618,7 +2621,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2638,7 +2641,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2658,7 +2661,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2678,7 +2681,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2698,7 +2701,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2718,7 +2721,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2738,7 +2741,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2758,7 +2761,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2778,7 +2781,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2798,7 +2801,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2818,7 +2821,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2838,7 +2841,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2858,7 +2861,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2878,7 +2881,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2898,7 +2901,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2918,7 +2921,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2938,7 +2941,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2958,7 +2961,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2978,7 +2981,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2998,7 +3001,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3018,7 +3021,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -3038,7 +3041,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -3058,7 +3061,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -3078,7 +3081,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -3098,7 +3101,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -3118,7 +3121,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3138,7 +3141,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -3158,7 +3161,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -3178,7 +3181,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -3198,7 +3201,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -3218,7 +3221,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -3238,7 +3241,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -3258,7 +3261,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -3278,7 +3281,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -3298,7 +3301,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -3318,7 +3321,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -3338,7 +3341,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -3358,7 +3361,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -3378,7 +3381,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -3398,7 +3401,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -3418,7 +3421,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -3438,7 +3441,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -3458,7 +3461,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -3478,7 +3481,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -3498,7 +3501,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -3518,7 +3521,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -3538,7 +3541,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -3558,7 +3561,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -3578,7 +3581,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -3598,7 +3601,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -3618,7 +3621,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -3638,7 +3641,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -3658,7 +3661,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -3678,7 +3681,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -3698,7 +3701,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -3718,7 +3721,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -3738,7 +3741,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -3758,7 +3761,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -3778,7 +3781,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -3798,7 +3801,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -3838,7 +3841,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -3858,7 +3861,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -3878,7 +3881,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -3898,7 +3901,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -3918,7 +3921,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -3938,7 +3941,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -3958,7 +3961,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -3978,7 +3981,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -3998,7 +4001,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -4018,7 +4021,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -4038,7 +4041,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -4058,7 +4061,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -4078,7 +4081,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -4098,7 +4101,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -4118,7 +4121,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -4138,7 +4141,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -4158,7 +4161,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -4178,7 +4181,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -4198,7 +4201,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -4218,7 +4221,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -4238,7 +4241,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -4258,7 +4261,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -4278,7 +4281,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -4298,7 +4301,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -4318,7 +4321,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -4338,7 +4341,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -4358,7 +4361,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -4378,7 +4381,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -4398,7 +4401,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -4418,7 +4421,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -4438,7 +4441,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -4458,7 +4461,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -4478,7 +4481,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -4498,7 +4501,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -4518,7 +4521,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -4538,7 +4541,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -4558,7 +4561,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -4578,7 +4581,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -4598,7 +4601,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -4618,7 +4621,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -4638,7 +4641,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -4658,7 +4661,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -4678,7 +4681,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -4698,7 +4701,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -4718,7 +4721,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -4738,7 +4741,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -4758,7 +4761,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -4778,7 +4781,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -4798,7 +4801,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -4818,7 +4821,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -4838,7 +4841,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -4858,7 +4861,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -4878,7 +4881,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -4898,7 +4901,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -4918,7 +4921,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -4938,7 +4941,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -4958,7 +4961,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -4978,7 +4981,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -4998,7 +5001,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -5018,7 +5021,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -5038,7 +5041,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -5058,7 +5061,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -5078,7 +5081,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -5098,7 +5101,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -5118,7 +5121,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -5138,7 +5141,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -5158,7 +5161,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -5178,7 +5181,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -5198,7 +5201,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -5218,7 +5221,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -5238,7 +5241,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -5258,7 +5261,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -5278,7 +5281,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -5298,7 +5301,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -5318,7 +5321,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -5338,7 +5341,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -5358,7 +5361,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>177</v>
       </c>
@@ -5378,7 +5381,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -5398,7 +5401,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -5418,7 +5421,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -5438,7 +5441,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -5458,7 +5461,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -5478,7 +5481,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>231</v>
       </c>
@@ -5492,13 +5495,13 @@
         <v>269</v>
       </c>
       <c r="E185" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F185" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>230</v>
       </c>
@@ -5512,13 +5515,13 @@
         <v>269</v>
       </c>
       <c r="E186" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F186" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>229</v>
       </c>
@@ -5532,13 +5535,13 @@
         <v>269</v>
       </c>
       <c r="E187" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F187" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>228</v>
       </c>
@@ -5552,13 +5555,13 @@
         <v>269</v>
       </c>
       <c r="E188" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F188" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>227</v>
       </c>
@@ -5572,13 +5575,13 @@
         <v>269</v>
       </c>
       <c r="E189" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F189" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>226</v>
       </c>
@@ -5592,13 +5595,13 @@
         <v>269</v>
       </c>
       <c r="E190" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F190" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>225</v>
       </c>
@@ -5612,13 +5615,13 @@
         <v>269</v>
       </c>
       <c r="E191" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F191" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>224</v>
       </c>
@@ -5632,13 +5635,13 @@
         <v>269</v>
       </c>
       <c r="E192" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F192" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>223</v>
       </c>
@@ -5652,13 +5655,13 @@
         <v>269</v>
       </c>
       <c r="E193" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F193" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>222</v>
       </c>
@@ -5672,13 +5675,13 @@
         <v>269</v>
       </c>
       <c r="E194" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F194" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>221</v>
       </c>
@@ -5692,13 +5695,13 @@
         <v>269</v>
       </c>
       <c r="E195" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F195" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>220</v>
       </c>
@@ -5712,13 +5715,13 @@
         <v>269</v>
       </c>
       <c r="E196" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F196" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>264</v>
       </c>
@@ -5732,13 +5735,13 @@
         <v>269</v>
       </c>
       <c r="E197" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F197" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>219</v>
       </c>
@@ -5752,13 +5755,13 @@
         <v>269</v>
       </c>
       <c r="E198" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F198" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>218</v>
       </c>
@@ -5772,13 +5775,13 @@
         <v>269</v>
       </c>
       <c r="E199" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F199" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>217</v>
       </c>
@@ -5792,13 +5795,13 @@
         <v>269</v>
       </c>
       <c r="E200" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F200" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>216</v>
       </c>
@@ -5812,13 +5815,13 @@
         <v>269</v>
       </c>
       <c r="E201" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F201" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>215</v>
       </c>
@@ -5832,13 +5835,13 @@
         <v>269</v>
       </c>
       <c r="E202" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F202" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>214</v>
       </c>
@@ -5852,13 +5855,13 @@
         <v>269</v>
       </c>
       <c r="E203" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F203" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>213</v>
       </c>
@@ -5872,13 +5875,13 @@
         <v>269</v>
       </c>
       <c r="E204" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F204" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>212</v>
       </c>
@@ -5892,13 +5895,13 @@
         <v>269</v>
       </c>
       <c r="E205" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F205" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>211</v>
       </c>
@@ -5912,13 +5915,13 @@
         <v>269</v>
       </c>
       <c r="E206" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F206" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>210</v>
       </c>
@@ -5932,13 +5935,13 @@
         <v>269</v>
       </c>
       <c r="E207" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F207" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>209</v>
       </c>
@@ -5952,13 +5955,13 @@
         <v>269</v>
       </c>
       <c r="E208" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F208" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -5972,13 +5975,13 @@
         <v>269</v>
       </c>
       <c r="E209" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F209" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -5992,13 +5995,13 @@
         <v>269</v>
       </c>
       <c r="E210" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F210" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>206</v>
       </c>
@@ -6012,13 +6015,13 @@
         <v>269</v>
       </c>
       <c r="E211" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F211" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>205</v>
       </c>
@@ -6032,13 +6035,13 @@
         <v>269</v>
       </c>
       <c r="E212" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F212" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>204</v>
       </c>
@@ -6052,13 +6055,13 @@
         <v>269</v>
       </c>
       <c r="E213" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F213" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>203</v>
       </c>
@@ -6072,13 +6075,13 @@
         <v>269</v>
       </c>
       <c r="E214" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F214" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>202</v>
       </c>
@@ -6092,13 +6095,13 @@
         <v>269</v>
       </c>
       <c r="E215" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F215" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>201</v>
       </c>
@@ -6112,13 +6115,13 @@
         <v>269</v>
       </c>
       <c r="E216" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F216" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>200</v>
       </c>
@@ -6132,13 +6135,13 @@
         <v>269</v>
       </c>
       <c r="E217" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F217" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>199</v>
       </c>
@@ -6152,13 +6155,13 @@
         <v>269</v>
       </c>
       <c r="E218" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F218" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>198</v>
       </c>
@@ -6172,13 +6175,13 @@
         <v>269</v>
       </c>
       <c r="E219" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F219" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>197</v>
       </c>
@@ -6192,13 +6195,13 @@
         <v>269</v>
       </c>
       <c r="E220" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F220" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>196</v>
       </c>
@@ -6212,13 +6215,13 @@
         <v>269</v>
       </c>
       <c r="E221" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F221" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>195</v>
       </c>
@@ -6232,13 +6235,13 @@
         <v>269</v>
       </c>
       <c r="E222" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F222" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>194</v>
       </c>
@@ -6252,13 +6255,13 @@
         <v>269</v>
       </c>
       <c r="E223" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F223" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>193</v>
       </c>
@@ -6272,13 +6275,13 @@
         <v>269</v>
       </c>
       <c r="E224" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F224" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>192</v>
       </c>
@@ -6292,13 +6295,13 @@
         <v>269</v>
       </c>
       <c r="E225" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F225" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>191</v>
       </c>
@@ -6312,13 +6315,13 @@
         <v>269</v>
       </c>
       <c r="E226" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F226" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>190</v>
       </c>
@@ -6332,13 +6335,13 @@
         <v>269</v>
       </c>
       <c r="E227" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F227" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>189</v>
       </c>
@@ -6352,13 +6355,13 @@
         <v>269</v>
       </c>
       <c r="E228" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F228" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>188</v>
       </c>
@@ -6372,13 +6375,13 @@
         <v>269</v>
       </c>
       <c r="E229" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F229" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>187</v>
       </c>
@@ -6392,13 +6395,13 @@
         <v>269</v>
       </c>
       <c r="E230" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F230" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>186</v>
       </c>
@@ -6412,13 +6415,13 @@
         <v>269</v>
       </c>
       <c r="E231" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F231" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>185</v>
       </c>
@@ -6432,13 +6435,13 @@
         <v>269</v>
       </c>
       <c r="E232" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F232" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>184</v>
       </c>
@@ -6452,13 +6455,13 @@
         <v>269</v>
       </c>
       <c r="E233" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F233" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>183</v>
       </c>
@@ -6472,13 +6475,13 @@
         <v>269</v>
       </c>
       <c r="E234" t="s">
-        <v>269</v>
+        <v>464</v>
       </c>
       <c r="F234" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>256</v>
       </c>
@@ -6495,7 +6498,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>257</v>
       </c>
@@ -6512,7 +6515,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -6529,7 +6532,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>255</v>
       </c>
@@ -6546,7 +6549,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>262</v>
       </c>
@@ -6563,7 +6566,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>260</v>
       </c>
@@ -6580,7 +6583,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>261</v>
       </c>
@@ -6597,7 +6600,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>259</v>
       </c>
@@ -6614,7 +6617,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>254</v>
       </c>
@@ -6631,7 +6634,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>263</v>
       </c>
@@ -6648,7 +6651,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>270</v>
       </c>
